--- a/assets/sp_master_sample.xlsx
+++ b/assets/sp_master_sample.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="130" windowWidth="19100" windowHeight="7290"/>
+    <workbookView xWindow="75" yWindow="135" windowWidth="19095" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,70 +21,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
-  <si>
-    <t>Part Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Supplier Code</t>
   </si>
   <si>
-    <t>ELP001</t>
-  </si>
-  <si>
-    <t>ELP002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP005 </t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
-    <t>Part Name</t>
-  </si>
-  <si>
     <t>Supplier Name</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Part 1</t>
-  </si>
-  <si>
-    <t>Part 2</t>
-  </si>
-  <si>
-    <t>Part 3</t>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>S111</t>
+  </si>
+  <si>
+    <t>ABCg</t>
+  </si>
+  <si>
+    <t>S112</t>
+  </si>
+  <si>
+    <t>SBNk</t>
+  </si>
+  <si>
+    <t>S113</t>
+  </si>
+  <si>
+    <t>SBNs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -142,12 +129,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -194,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,9 +224,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,155 +435,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
